--- a/REGULAR/CCT/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/CCT/LEPARDO, ROWENA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="523">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1684,6 +1684,24 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/10,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2405,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K719" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2716,12 +2734,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K712"/>
+  <dimension ref="A2:K719"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="4065" topLeftCell="A517" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="F537" sqref="F537"/>
+      <selection pane="bottomLeft" activeCell="E526" sqref="E526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,7 +2904,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.361000000000111</v>
+        <v>49.271000000000079</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2896,7 +2914,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.37199999999999</v>
+        <v>106.87199999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14435,140 +14453,136 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="41">
-        <v>44958</v>
-      </c>
-      <c r="B522" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C522" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D522" s="43"/>
-      <c r="E522" s="51"/>
-      <c r="F522" s="15"/>
-      <c r="G522" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H522" s="43"/>
-      <c r="I522" s="51"/>
-      <c r="J522" s="12"/>
-      <c r="K522" s="52">
-        <v>44963</v>
-      </c>
+      <c r="A522" s="40"/>
+      <c r="B522" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C522" s="13"/>
+      <c r="D522" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="E522" s="9"/>
+      <c r="F522" s="20"/>
+      <c r="G522" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H522" s="39"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="11"/>
+      <c r="K522" s="50"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="41">
+        <v>44958</v>
+      </c>
+      <c r="B523" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D523" s="43"/>
+      <c r="E523" s="51"/>
+      <c r="F523" s="15"/>
+      <c r="G523" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H523" s="43"/>
+      <c r="I523" s="51"/>
+      <c r="J523" s="12"/>
+      <c r="K523" s="52">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" s="41">
         <v>44986</v>
       </c>
-      <c r="B523" s="20" t="s">
+      <c r="B524" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C523" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D523" s="39"/>
-      <c r="E523" s="9"/>
-      <c r="F523" s="20"/>
-      <c r="G523" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H523" s="39"/>
-      <c r="I523" s="9"/>
-      <c r="J523" s="11"/>
-      <c r="K523" s="20" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="41"/>
-      <c r="B524" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="50">
-        <v>44991</v>
+      <c r="K524" s="20" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="41">
-        <v>45017</v>
-      </c>
-      <c r="B525" s="20"/>
-      <c r="C525" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A525" s="41"/>
+      <c r="B525" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C525" s="13"/>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="50">
+        <v>44991</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="41">
-        <v>45047</v>
-      </c>
+      <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C526" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D526" s="39"/>
+        <v>521</v>
+      </c>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="50">
-        <v>45061</v>
-      </c>
+      <c r="K526" s="50"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="41"/>
-      <c r="B527" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C527" s="13"/>
+      <c r="A527" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D527" s="39"/>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G527" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="50">
-        <v>45085</v>
-      </c>
+      <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="41">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B528" s="20" t="s">
         <v>511</v>
@@ -14587,13 +14601,13 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="50">
-        <v>45091</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="41"/>
       <c r="B529" s="20" t="s">
-        <v>206</v>
+        <v>511</v>
       </c>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
@@ -14607,15 +14621,15 @@
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
       <c r="K529" s="50">
-        <v>45117</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="41">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B530" s="20" t="s">
-        <v>206</v>
+        <v>511</v>
       </c>
       <c r="C530" s="13">
         <v>1.25</v>
@@ -14631,87 +14645,79 @@
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
       <c r="K530" s="50">
-        <v>45125</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="41">
-        <v>45139</v>
-      </c>
+      <c r="A531" s="41"/>
       <c r="B531" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="C531" s="13">
-        <v>1.25</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C531" s="13"/>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
       <c r="K531" s="50">
-        <v>45155</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="41">
-        <v>45170</v>
-      </c>
+      <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C532" s="13">
-        <v>1.25</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C532" s="13"/>
       <c r="D532" s="39">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
-      <c r="K532" s="50">
-        <v>45181</v>
-      </c>
+      <c r="K532" s="50"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40"/>
+      <c r="A533" s="41">
+        <v>45108</v>
+      </c>
       <c r="B533" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C533" s="13"/>
+        <v>206</v>
+      </c>
+      <c r="C533" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H533" s="39">
-        <v>1</v>
-      </c>
+      <c r="G533" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H533" s="39"/>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
       <c r="K533" s="50">
-        <v>45190</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="41">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>52</v>
+        <v>511</v>
       </c>
       <c r="C534" s="13">
         <v>1.25</v>
@@ -14723,92 +14729,96 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H534" s="39">
-        <v>1</v>
-      </c>
+      <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
       <c r="K534" s="50">
-        <v>45212</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+      <c r="A535" s="41">
+        <v>45170</v>
+      </c>
       <c r="B535" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C535" s="13"/>
+        <v>99</v>
+      </c>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D535" s="39">
         <v>1</v>
       </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G535" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="50">
-        <v>45225</v>
+        <v>45181</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="41">
-        <v>45231</v>
-      </c>
+      <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="C536" s="13"/>
-      <c r="D536" s="39">
-        <v>1</v>
-      </c>
+      <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
       <c r="G536" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H536" s="39"/>
+      <c r="H536" s="39">
+        <v>1</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="50">
-        <v>45253</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="41">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B537" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C537" s="13"/>
-      <c r="D537" s="39">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H537" s="39"/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H537" s="39">
+        <v>1</v>
+      </c>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20" t="s">
-        <v>516</v>
+      <c r="K537" s="50">
+        <v>45212</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="41">
-        <v>45292</v>
-      </c>
-      <c r="B538" s="20"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C538" s="13"/>
-      <c r="D538" s="39"/>
+      <c r="D538" s="39">
+        <v>1</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
       <c r="G538" s="13" t="str">
@@ -14818,15 +14828,19 @@
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="50">
+        <v>45225</v>
+      </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="41">
-        <v>45323</v>
-      </c>
-      <c r="B539" s="20"/>
+      <c r="A539" s="40"/>
+      <c r="B539" s="20" t="s">
+        <v>503</v>
+      </c>
       <c r="C539" s="13"/>
-      <c r="D539" s="39"/>
+      <c r="D539" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
       <c r="G539" s="13" t="str">
@@ -14836,33 +14850,43 @@
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="50"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="41">
-        <v>45352</v>
-      </c>
-      <c r="B540" s="20"/>
-      <c r="C540" s="13"/>
-      <c r="D540" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B540" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C540" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D540" s="39">
+        <v>1</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G540" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="50">
+        <v>45253</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="41">
-        <v>45383</v>
-      </c>
-      <c r="B541" s="20"/>
+      <c r="A541" s="40"/>
+      <c r="B541" s="20" t="s">
+        <v>518</v>
+      </c>
       <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+      <c r="D541" s="39">
+        <v>2</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13" t="str">
@@ -14872,15 +14896,19 @@
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="50" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="41">
-        <v>45413</v>
-      </c>
-      <c r="B542" s="20"/>
+      <c r="A542" s="40"/>
+      <c r="B542" s="20" t="s">
+        <v>503</v>
+      </c>
       <c r="C542" s="13"/>
-      <c r="D542" s="39"/>
+      <c r="D542" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
       <c r="G542" s="13" t="str">
@@ -14890,29 +14918,37 @@
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="K542" s="50"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="41">
-        <v>45444</v>
-      </c>
-      <c r="B543" s="20"/>
-      <c r="C543" s="13"/>
-      <c r="D543" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D543" s="39">
+        <v>3</v>
+      </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="20" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="41">
-        <v>45474</v>
+      <c r="A544" s="48" t="s">
+        <v>517</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14930,7 +14966,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="41">
-        <v>45505</v>
+        <v>45292</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14948,7 +14984,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="41">
-        <v>45536</v>
+        <v>45323</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14966,7 +15002,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="41">
-        <v>45566</v>
+        <v>45352</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14984,7 +15020,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="41">
-        <v>45597</v>
+        <v>45383</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15002,7 +15038,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="41">
-        <v>45627</v>
+        <v>45413</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15020,7 +15056,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="41">
-        <v>45658</v>
+        <v>45444</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15038,7 +15074,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="41">
-        <v>45689</v>
+        <v>45474</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15056,7 +15092,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="41">
-        <v>45717</v>
+        <v>45505</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15074,7 +15110,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="41">
-        <v>45748</v>
+        <v>45536</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15092,7 +15128,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="41">
-        <v>45778</v>
+        <v>45566</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15110,7 +15146,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="41">
-        <v>45809</v>
+        <v>45597</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15128,7 +15164,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="41">
-        <v>45839</v>
+        <v>45627</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15146,7 +15182,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="41">
-        <v>45870</v>
+        <v>45658</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15164,7 +15200,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="41">
-        <v>45901</v>
+        <v>45689</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15182,7 +15218,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="41">
-        <v>45931</v>
+        <v>45717</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15200,7 +15236,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="41">
-        <v>45962</v>
+        <v>45748</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15218,7 +15254,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="41">
-        <v>45992</v>
+        <v>45778</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15236,7 +15272,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="41">
-        <v>46023</v>
+        <v>45809</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15254,7 +15290,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="41">
-        <v>46054</v>
+        <v>45839</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15272,7 +15308,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="41">
-        <v>46082</v>
+        <v>45870</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15290,7 +15326,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="41">
-        <v>46113</v>
+        <v>45901</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15308,7 +15344,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="41">
-        <v>46143</v>
+        <v>45931</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15326,7 +15362,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
-        <v>46174</v>
+        <v>45962</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15344,7 +15380,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="41">
-        <v>46204</v>
+        <v>45992</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15362,7 +15398,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="41">
-        <v>46235</v>
+        <v>46023</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15380,7 +15416,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">
-        <v>46266</v>
+        <v>46054</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15398,7 +15434,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="41">
-        <v>46296</v>
+        <v>46082</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15416,7 +15452,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="41">
-        <v>46327</v>
+        <v>46113</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15434,7 +15470,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="41">
-        <v>46357</v>
+        <v>46143</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15452,7 +15488,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41">
-        <v>46388</v>
+        <v>46174</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15470,7 +15506,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="41">
-        <v>46419</v>
+        <v>46204</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15488,7 +15524,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="41">
-        <v>46447</v>
+        <v>46235</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15506,7 +15542,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="41">
-        <v>46478</v>
+        <v>46266</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15524,7 +15560,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="41">
-        <v>46508</v>
+        <v>46296</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15542,7 +15578,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41">
-        <v>46539</v>
+        <v>46327</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15560,7 +15596,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="41">
-        <v>46569</v>
+        <v>46357</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15578,7 +15614,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="41">
-        <v>46600</v>
+        <v>46388</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15596,7 +15632,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="41">
-        <v>46631</v>
+        <v>46419</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15614,7 +15650,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
-        <v>46661</v>
+        <v>46447</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15632,7 +15668,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="41">
-        <v>46692</v>
+        <v>46478</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15650,7 +15686,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="41">
-        <v>46722</v>
+        <v>46508</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15668,7 +15704,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41">
-        <v>46753</v>
+        <v>46539</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15686,7 +15722,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="41">
-        <v>46784</v>
+        <v>46569</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15704,7 +15740,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="41">
-        <v>46813</v>
+        <v>46600</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15722,7 +15758,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="41">
-        <v>46844</v>
+        <v>46631</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15740,7 +15776,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="41">
-        <v>46874</v>
+        <v>46661</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15758,7 +15794,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41">
-        <v>46905</v>
+        <v>46692</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15776,7 +15812,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="41">
-        <v>46935</v>
+        <v>46722</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15794,7 +15830,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="41">
-        <v>46966</v>
+        <v>46753</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15812,7 +15848,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="41">
-        <v>46997</v>
+        <v>46784</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15830,7 +15866,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
-        <v>47027</v>
+        <v>46813</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15848,7 +15884,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41">
-        <v>47058</v>
+        <v>46844</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15866,7 +15902,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41">
-        <v>47088</v>
+        <v>46874</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15884,7 +15920,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="41">
-        <v>47119</v>
+        <v>46905</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15902,7 +15938,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="41">
-        <v>47150</v>
+        <v>46935</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15920,7 +15956,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="41">
-        <v>47178</v>
+        <v>46966</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15938,7 +15974,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="41">
-        <v>47209</v>
+        <v>46997</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15956,7 +15992,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="41">
-        <v>47239</v>
+        <v>47027</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15974,7 +16010,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
-        <v>47270</v>
+        <v>47058</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15992,7 +16028,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="41">
-        <v>47300</v>
+        <v>47088</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -16010,7 +16046,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="41">
-        <v>47331</v>
+        <v>47119</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -16028,7 +16064,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="41">
-        <v>47362</v>
+        <v>47150</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16046,7 +16082,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="41">
-        <v>47392</v>
+        <v>47178</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16064,7 +16100,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="41">
-        <v>47423</v>
+        <v>47209</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16082,7 +16118,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="41">
-        <v>47453</v>
+        <v>47239</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16100,7 +16136,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41">
-        <v>47484</v>
+        <v>47270</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16118,7 +16154,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41">
-        <v>47515</v>
+        <v>47300</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16136,7 +16172,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="41">
-        <v>47543</v>
+        <v>47331</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16154,7 +16190,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="41">
-        <v>47574</v>
+        <v>47362</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16172,7 +16208,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="41">
-        <v>47604</v>
+        <v>47392</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16190,7 +16226,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="41">
-        <v>47635</v>
+        <v>47423</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16208,7 +16244,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="41">
-        <v>47665</v>
+        <v>47453</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16226,7 +16262,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="41">
-        <v>47696</v>
+        <v>47484</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16244,7 +16280,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="41">
-        <v>47727</v>
+        <v>47515</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16262,7 +16298,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="41">
-        <v>47757</v>
+        <v>47543</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16280,7 +16316,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="41">
-        <v>47788</v>
+        <v>47574</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16298,7 +16334,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="41">
-        <v>47818</v>
+        <v>47604</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16316,7 +16352,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="41">
-        <v>47849</v>
+        <v>47635</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16334,7 +16370,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="41">
-        <v>47880</v>
+        <v>47665</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16352,7 +16388,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="41">
-        <v>47908</v>
+        <v>47696</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16370,7 +16406,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="41">
-        <v>47939</v>
+        <v>47727</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16388,7 +16424,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="41">
-        <v>47969</v>
+        <v>47757</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16406,7 +16442,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="41">
-        <v>48000</v>
+        <v>47788</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16424,7 +16460,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="41">
-        <v>48030</v>
+        <v>47818</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16442,7 +16478,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="41">
-        <v>48061</v>
+        <v>47849</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16460,7 +16496,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41">
-        <v>48092</v>
+        <v>47880</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16478,7 +16514,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="41">
-        <v>48122</v>
+        <v>47908</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16496,7 +16532,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="41">
-        <v>48153</v>
+        <v>47939</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16514,7 +16550,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="41">
-        <v>48183</v>
+        <v>47969</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16532,7 +16568,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="41">
-        <v>48214</v>
+        <v>48000</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16550,7 +16586,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="41">
-        <v>48245</v>
+        <v>48030</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16568,7 +16604,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="41">
-        <v>48274</v>
+        <v>48061</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16586,7 +16622,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="41">
-        <v>48305</v>
+        <v>48092</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16604,7 +16640,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="41">
-        <v>48335</v>
+        <v>48122</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16622,7 +16658,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="41">
-        <v>48366</v>
+        <v>48153</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16640,7 +16676,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="41">
-        <v>48396</v>
+        <v>48183</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16658,7 +16694,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="41">
-        <v>48427</v>
+        <v>48214</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16676,7 +16712,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="41">
-        <v>48458</v>
+        <v>48245</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16694,7 +16730,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="41">
-        <v>48488</v>
+        <v>48274</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16712,7 +16748,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="41">
-        <v>48519</v>
+        <v>48305</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16730,7 +16766,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="41">
-        <v>48549</v>
+        <v>48335</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16748,7 +16784,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="41">
-        <v>48580</v>
+        <v>48366</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16766,7 +16802,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41">
-        <v>48611</v>
+        <v>48396</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16784,7 +16820,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="41">
-        <v>48639</v>
+        <v>48427</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16802,7 +16838,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="41">
-        <v>48670</v>
+        <v>48458</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16820,7 +16856,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="41">
-        <v>48700</v>
+        <v>48488</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16838,7 +16874,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="41">
-        <v>48731</v>
+        <v>48519</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16856,7 +16892,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="41">
-        <v>48761</v>
+        <v>48549</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16874,7 +16910,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="41">
-        <v>48792</v>
+        <v>48580</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16892,7 +16928,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="41">
-        <v>48823</v>
+        <v>48611</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16910,7 +16946,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="41">
-        <v>48853</v>
+        <v>48639</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16928,7 +16964,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="41">
-        <v>48884</v>
+        <v>48670</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16946,7 +16982,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="41">
-        <v>48914</v>
+        <v>48700</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16964,7 +17000,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="41">
-        <v>48945</v>
+        <v>48731</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16982,7 +17018,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="41">
-        <v>48976</v>
+        <v>48761</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17000,7 +17036,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="41">
-        <v>49004</v>
+        <v>48792</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17018,7 +17054,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="41">
-        <v>49035</v>
+        <v>48823</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17036,7 +17072,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="41">
-        <v>49065</v>
+        <v>48853</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17054,7 +17090,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="41">
-        <v>49096</v>
+        <v>48884</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17072,7 +17108,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="41">
-        <v>49126</v>
+        <v>48914</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17090,7 +17126,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="41">
-        <v>49157</v>
+        <v>48945</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17108,7 +17144,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="41">
-        <v>49188</v>
+        <v>48976</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17126,7 +17162,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="41">
-        <v>49218</v>
+        <v>49004</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17144,7 +17180,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="41">
-        <v>49249</v>
+        <v>49035</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17162,7 +17198,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="41">
-        <v>49279</v>
+        <v>49065</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17180,7 +17216,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="41">
-        <v>49310</v>
+        <v>49096</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17198,7 +17234,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="41">
-        <v>49341</v>
+        <v>49126</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17216,7 +17252,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="41">
-        <v>49369</v>
+        <v>49157</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17234,7 +17270,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="41">
-        <v>49400</v>
+        <v>49188</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17252,7 +17288,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="41">
-        <v>49430</v>
+        <v>49218</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17270,7 +17306,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="41">
-        <v>49461</v>
+        <v>49249</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17288,7 +17324,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="41">
-        <v>49491</v>
+        <v>49279</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17306,7 +17342,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="41">
-        <v>49522</v>
+        <v>49310</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17324,7 +17360,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="41">
-        <v>49553</v>
+        <v>49341</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17342,7 +17378,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="41">
-        <v>49583</v>
+        <v>49369</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17360,7 +17396,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="41">
-        <v>49614</v>
+        <v>49400</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17378,7 +17414,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="41">
-        <v>49644</v>
+        <v>49430</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17396,7 +17432,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="41">
-        <v>49675</v>
+        <v>49461</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17414,7 +17450,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="41">
-        <v>49706</v>
+        <v>49491</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17432,7 +17468,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="41">
-        <v>49735</v>
+        <v>49522</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17450,7 +17486,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="41">
-        <v>49766</v>
+        <v>49553</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17468,7 +17504,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="41">
-        <v>49796</v>
+        <v>49583</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17486,7 +17522,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="41">
-        <v>49827</v>
+        <v>49614</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17504,7 +17540,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="41">
-        <v>49857</v>
+        <v>49644</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17522,7 +17558,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="41">
-        <v>49888</v>
+        <v>49675</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17540,7 +17576,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="41">
-        <v>49919</v>
+        <v>49706</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17558,7 +17594,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="41">
-        <v>49949</v>
+        <v>49735</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17576,7 +17612,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="41">
-        <v>49980</v>
+        <v>49766</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17594,7 +17630,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="41">
-        <v>50010</v>
+        <v>49796</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17612,7 +17648,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="41">
-        <v>50041</v>
+        <v>49827</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17630,7 +17666,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="41">
-        <v>50072</v>
+        <v>49857</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17648,7 +17684,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="41">
-        <v>50100</v>
+        <v>49888</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17666,7 +17702,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="41">
-        <v>50131</v>
+        <v>49919</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17684,7 +17720,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="41">
-        <v>50161</v>
+        <v>49949</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17702,7 +17738,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="41">
-        <v>50192</v>
+        <v>49980</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17720,7 +17756,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="41">
-        <v>50222</v>
+        <v>50010</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17738,7 +17774,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="41">
-        <v>50253</v>
+        <v>50041</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17756,7 +17792,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="41">
-        <v>50284</v>
+        <v>50072</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17774,7 +17810,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="41">
-        <v>50314</v>
+        <v>50100</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17792,7 +17828,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="41">
-        <v>50345</v>
+        <v>50131</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17810,7 +17846,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="41">
-        <v>50375</v>
+        <v>50161</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17828,7 +17864,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="41">
-        <v>50406</v>
+        <v>50192</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17846,7 +17882,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="41">
-        <v>50437</v>
+        <v>50222</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17864,7 +17900,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="41">
-        <v>50465</v>
+        <v>50253</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17882,7 +17918,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="41">
-        <v>50496</v>
+        <v>50284</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17900,7 +17936,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="41">
-        <v>50526</v>
+        <v>50314</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17918,7 +17954,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="41">
-        <v>50557</v>
+        <v>50345</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17936,7 +17972,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="41">
-        <v>50587</v>
+        <v>50375</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -17951,6 +17987,132 @@
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A713" s="41">
+        <v>50406</v>
+      </c>
+      <c r="B713" s="20"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39"/>
+      <c r="E713" s="9"/>
+      <c r="F713" s="20"/>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H713" s="39"/>
+      <c r="I713" s="9"/>
+      <c r="J713" s="11"/>
+      <c r="K713" s="20"/>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A714" s="41">
+        <v>50437</v>
+      </c>
+      <c r="B714" s="20"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="39"/>
+      <c r="E714" s="9"/>
+      <c r="F714" s="20"/>
+      <c r="G714" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H714" s="39"/>
+      <c r="I714" s="9"/>
+      <c r="J714" s="11"/>
+      <c r="K714" s="20"/>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A715" s="41">
+        <v>50465</v>
+      </c>
+      <c r="B715" s="20"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39"/>
+      <c r="E715" s="9"/>
+      <c r="F715" s="20"/>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
+      <c r="I715" s="9"/>
+      <c r="J715" s="11"/>
+      <c r="K715" s="20"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A716" s="41">
+        <v>50496</v>
+      </c>
+      <c r="B716" s="20"/>
+      <c r="C716" s="13"/>
+      <c r="D716" s="39"/>
+      <c r="E716" s="9"/>
+      <c r="F716" s="20"/>
+      <c r="G716" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H716" s="39"/>
+      <c r="I716" s="9"/>
+      <c r="J716" s="11"/>
+      <c r="K716" s="20"/>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A717" s="41">
+        <v>50526</v>
+      </c>
+      <c r="B717" s="20"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="39"/>
+      <c r="E717" s="9"/>
+      <c r="F717" s="20"/>
+      <c r="G717" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H717" s="39"/>
+      <c r="I717" s="9"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="20"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A718" s="41">
+        <v>50557</v>
+      </c>
+      <c r="B718" s="20"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="39"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="20"/>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="39"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="11"/>
+      <c r="K718" s="20"/>
+    </row>
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A719" s="41">
+        <v>50587</v>
+      </c>
+      <c r="B719" s="20"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="39"/>
+      <c r="E719" s="9"/>
+      <c r="F719" s="20"/>
+      <c r="G719" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="39"/>
+      <c r="I719" s="9"/>
+      <c r="J719" s="11"/>
+      <c r="K719" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18064,15 +18226,13 @@
         <v>43.792000000000002</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.9000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
